--- a/Final_version/data_6.xlsx
+++ b/Final_version/data_6.xlsx
@@ -408,7 +408,7 @@
         <v>1.832</v>
       </c>
       <c r="D2">
-        <v>1926.727</v>
+        <v>1926.725</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -419,10 +419,10 @@
         <v>0.146</v>
       </c>
       <c r="C3">
-        <v>18.505</v>
+        <v>18.506</v>
       </c>
       <c r="D3">
-        <v>2979.925</v>
+        <v>2979.93</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -433,10 +433,10 @@
         <v>18.945</v>
       </c>
       <c r="C4">
-        <v>15.977</v>
+        <v>15.979</v>
       </c>
       <c r="D4">
-        <v>2999.796</v>
+        <v>2999.806</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -450,7 +450,7 @@
         <v>0.174</v>
       </c>
       <c r="D5">
-        <v>1413.197</v>
+        <v>1413.246</v>
       </c>
     </row>
   </sheetData>
